--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem5/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem5/17/correct_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,12 +656,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Return to home and land promptly</t>
+          <t>Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7-12</t>
+          <t>13-22</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -686,42 +686,42 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast</t>
+          <t>Return to home and land promptly</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>7-12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>GPS signal low</t>
+          <t>Propeller rotating too fast</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -746,12 +746,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Aircraft unable to auto hover and takeoff restricted</t>
+          <t>GPS signal low</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -776,22 +776,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Move to environment with adequate light</t>
+          <t>Aircraft unable to auto hover and takeoff restricted</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Unlocking takeoff restrictions not recommended</t>
+          <t>Move to environment with adequate light</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>17-21</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1007,31 +1007,31 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1046,12 +1046,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>9-12</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1076,22 +1076,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>9-12</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1106,22 +1106,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1256,12 +1256,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
+          <t>Move away from sources of interference before attempting flight</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>22-30</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1270,36 +1270,6 @@
         </is>
       </c>
       <c r="F28" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>6</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Move away from sources of interference before attempting flight</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>22-30</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem5/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem5/17/correct_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,12 +656,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Return to home and land promptly</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13-22</t>
+          <t>7-12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -686,42 +686,42 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Return to home and land promptly</t>
+          <t>Propeller rotating too fast</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7-12</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast Wind resistance affected Return to home and land promptly Check whether propeller on beeping ESC is warped or damaged .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast</t>
+          <t>GPS signal low</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -746,12 +746,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GPS signal low</t>
+          <t>Aircraft unable to auto hover and takeoff restricted</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -776,22 +776,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Aircraft unable to auto hover and takeoff restricted</t>
+          <t>Move to environment with adequate light</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3-10</t>
+          <t>11-16</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Move to environment with adequate light</t>
+          <t>Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11-16</t>
+          <t>17-21</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1007,31 +1007,31 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1046,12 +1046,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>9-12</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1076,22 +1076,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>9-12</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1106,22 +1106,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1256,20 +1256,50 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2-14</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>6</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>Move away from sources of interference before attempting flight</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>22-30</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
